--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1695814.348363515</v>
+        <v>-1698473.701335528</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.45931695378433</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.6235651951071</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.06976758835513</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>17.42775815369515</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>182.6461259649893</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>36.55109356902394</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>14.91436089541087</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>200.3330302026804</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>87.40006684547599</v>
       </c>
       <c r="G8" t="n">
-        <v>30.94422611183034</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>90.86313539611872</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>64.1426004684114</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9888698962414</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>54.10799870228453</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.82351723687695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>141.8888082957385</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>137.7610225486949</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>139.3687739767485</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>58.21786903648848</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545307</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>852.7397894419585</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="C2" t="n">
-        <v>852.7397894419585</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="D2" t="n">
-        <v>852.7397894419585</v>
+        <v>1186.887478820693</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>801.0992262224488</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>390.1133214328412</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>390.1133214328412</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>86.05417743041153</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="Y2" t="n">
-        <v>852.7397894419585</v>
+        <v>1545.153177427444</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056661</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056661</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056661</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056661</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>134.1455417077558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>134.1455417077558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1618.842323959654</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056661</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056661</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>993.7429799877386</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C5" t="n">
-        <v>624.780463047327</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="D5" t="n">
-        <v>624.780463047327</v>
+        <v>173.1505792509928</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>173.1505792509928</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>166.2050785017894</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>154.5407322664823</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.34282005186</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4659,7 +4659,7 @@
         <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
         <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.819221779349</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.134733573462</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>751.7175635365018</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X7" t="n">
-        <v>751.7175635365018</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.9249843929716</v>
+        <v>368.0960630783031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605789</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653776</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D8" t="n">
-        <v>806.3384156653776</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="E8" t="n">
-        <v>806.3384156653776</v>
+        <v>909.4479615424621</v>
       </c>
       <c r="F8" t="n">
-        <v>395.3525108757701</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4808,22 +4808,22 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,19 +4957,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1745.683146001456</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1523.916530570982</v>
+        <v>1670.818158391671</v>
       </c>
       <c r="U10" t="n">
-        <v>1234.813663696626</v>
+        <v>1381.715291517315</v>
       </c>
       <c r="V10" t="n">
-        <v>1234.813663696626</v>
+        <v>1381.715291517315</v>
       </c>
       <c r="W10" t="n">
-        <v>945.3964936596652</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X10" t="n">
-        <v>945.3964936596652</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y10" t="n">
-        <v>945.3964936596652</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5030,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432833</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510507</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.77659230462</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.77659230462</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406603</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263073</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
         <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561822</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1732.088140170817</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.40365196493</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.986481927969</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9969310299521</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.2043518864219</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,31 +6616,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7087,40 +7087,40 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,34 +7345,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>192.9922161645035</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>31.25059571868616</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>135.3571391402066</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>321.6143734609465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.257951202386408</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>232.4149996343065</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.532239727192746</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.26526345294974</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>146.8157004124956</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>90.39760398172388</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1077839.343456488</v>
+        <v>1077839.343456487</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1299973.775014182</v>
+        <v>1299973.775014183</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1299973.775014182</v>
+        <v>1299973.775014183</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045148</v>
+        <v>99467.00901045147</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46585.95611007053</v>
+        <v>46585.95611007046</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,28 +26430,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756624</v>
+        <v>9337.200356756566</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756624</v>
+        <v>9337.20035675657</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985003</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985002</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154808.503115383</v>
+        <v>-1155203.324056536</v>
       </c>
       <c r="C6" t="n">
         <v>-106507.7806523047</v>
       </c>
       <c r="D6" t="n">
-        <v>-265929.0506501963</v>
+        <v>-265929.0506501966</v>
       </c>
       <c r="E6" t="n">
-        <v>-314800.2020345184</v>
+        <v>-314834.9399599536</v>
       </c>
       <c r="F6" t="n">
-        <v>10612.25977283723</v>
+        <v>10577.52184740151</v>
       </c>
       <c r="G6" t="n">
-        <v>10612.25977283715</v>
+        <v>10577.52184740151</v>
       </c>
       <c r="H6" t="n">
-        <v>10612.25977283718</v>
+        <v>10577.52184740154</v>
       </c>
       <c r="I6" t="n">
-        <v>10612.25977283712</v>
+        <v>10577.52184740141</v>
       </c>
       <c r="J6" t="n">
-        <v>-156992.9180371454</v>
+        <v>-157027.655962581</v>
       </c>
       <c r="K6" t="n">
-        <v>-16763.62798775484</v>
+        <v>-16763.62798775488</v>
       </c>
       <c r="L6" t="n">
-        <v>-45629.88000231383</v>
+        <v>-45629.8800023138</v>
       </c>
       <c r="M6" t="n">
-        <v>-82390.93792963479</v>
+        <v>-82390.93792963473</v>
       </c>
       <c r="N6" t="n">
-        <v>2664.090005877064</v>
+        <v>2664.090005877049</v>
       </c>
       <c r="O6" t="n">
         <v>2664.090005877035</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,25 +26802,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>213.8838295772079</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>213.8838295772064</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>65.18174156677374</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>268.7993959675055</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2842441072725</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>271.3127932257897</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>25.37662518635679</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>319.4759788962355</v>
       </c>
       <c r="G8" t="n">
-        <v>379.9774995416231</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>98.90588993532317</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4063488077578</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681188</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>600.4551148476376</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
